--- a/test_workbook/TestFile1.xlsx
+++ b/test_workbook/TestFile1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD213743-57A9-4788-9CDF-F91C0C961704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C5C36-5E61-440D-802D-4EC22066007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EC2D04AF-9E40-4D74-8295-48B5F5A240AB}"/>
+    <workbookView xWindow="-21705" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{EC2D04AF-9E40-4D74-8295-48B5F5A240AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,10 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063F1F8D-3ED4-4975-A1E5-C795FB5F3136}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -796,31 +797,31 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
         <v>101</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8">
-        <v>102</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
+      <c r="J8">
+        <v>202</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>ItemC_J</v>
+        <f>E8 &amp; "_J"</f>
+        <v>ItemB_J</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>IntCJ</v>
+        <f>F8 &amp; "J"</f>
+        <v>IntBJ</v>
       </c>
       <c r="O8">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -976,5 +977,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>